--- a/earlywarning-pom/earlywarning-config/src/baf-instances/66_Inst_Predictive_Model_ISBA.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/66_Inst_Predictive_Model_ISBA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27960" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27960" windowHeight="12375" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Predictive_Model" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="69">
   <si>
     <t>Predictive_Model</t>
   </si>
@@ -340,9 +340,6 @@
     <t>MOD_CORPORATE_1</t>
   </si>
   <si>
-    <t>MOD_RETAIL_1</t>
-  </si>
-  <si>
     <t>ISBA_CORPORATE_MODEL_1</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>CUSTOMER_ANALYSIS_UNIT_ISBA</t>
   </si>
   <si>
-    <t>ISBA_RETAIL_MODEL_1</t>
-  </si>
-  <si>
     <t>R-ISBA_CORPORATE_MODEL_1-WS_ISBA_CORPORATE</t>
   </si>
   <si>
@@ -362,12 +356,6 @@
   </si>
   <si>
     <t>WS_ISBA_CORPORATE</t>
-  </si>
-  <si>
-    <t>R-ISBA_RETAIL_MODEL_1-WS_ISBA_RETAIL</t>
-  </si>
-  <si>
-    <t>WS_ISBA_RETAIL</t>
   </si>
 </sst>
 </file>
@@ -461,7 +449,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -504,7 +492,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -560,7 +548,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -608,12 +596,60 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11658600" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -846,6 +882,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1014,6 +1098,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1246,6 +1378,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1261,7 +1441,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1304,7 +1484,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1360,7 +1540,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1408,12 +1588,60 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12563475" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1746,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,14 +2058,14 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -1854,36 +2082,6 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-    </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2097,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,34 +2346,17 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2189,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
